--- a/EduQuiz-Companion/public/Book1.xlsx
+++ b/EduQuiz-Companion/public/Book1.xlsx
@@ -1,40 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39519D5-3B09-4AF4-B126-CAC9743172EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{331AFF7F-F5AF-496C-A0F9-FB6B0FCA33D4}"/>
+    <workbookView xWindow="130" yWindow="490" windowWidth="18880" windowHeight="8740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">     Level</t>
   </si>
@@ -48,135 +28,52 @@
     <t>Question Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Correct </t>
+    <t xml:space="preserve">             Question</t>
+  </si>
+  <si>
+    <t>Option A</t>
+  </si>
+  <si>
+    <t>Option B</t>
+  </si>
+  <si>
+    <t>Option C</t>
+  </si>
+  <si>
+    <t>Option D</t>
   </si>
   <si>
     <t>Score</t>
   </si>
   <si>
-    <t xml:space="preserve">             Question</t>
-  </si>
-  <si>
-    <t>What is the main function of the command interpreter?</t>
-  </si>
-  <si>
-    <t> To provide the interface between the API and application program</t>
-  </si>
-  <si>
-    <t> to handle the files in the operating system</t>
-  </si>
-  <si>
-    <t>to get and execute the next user-specified command</t>
-  </si>
-  <si>
-    <t>none of the mentioned</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Option D</t>
-  </si>
-  <si>
-    <t>Option C</t>
-  </si>
-  <si>
-    <t>Option B</t>
-  </si>
-  <si>
-    <t>Option A</t>
-  </si>
-  <si>
-    <t>To access the services of the operating system, the interface is provided by the </t>
-  </si>
-  <si>
-    <t> Library</t>
-  </si>
-  <si>
-    <t>System calls</t>
-  </si>
-  <si>
-    <t>Assembly instructions</t>
-  </si>
-  <si>
-    <t> API</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t> CPU scheduling is the basis of ___________</t>
-  </si>
-  <si>
-    <t>multiprogramming operating systems</t>
-  </si>
-  <si>
-    <t> larger memory sized systems</t>
-  </si>
-  <si>
-    <t>multiprocessor systems</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>If a process fails, most operating system write the error information to a</t>
-  </si>
-  <si>
-    <t> new file</t>
-  </si>
-  <si>
-    <t>another running process</t>
-  </si>
-  <si>
-    <t>log file</t>
-  </si>
-  <si>
-    <t> Which one of the following is not a real time operating system?</t>
-  </si>
-  <si>
-    <t> RTLinux</t>
-  </si>
-  <si>
-    <t>Palm OS</t>
-  </si>
-  <si>
-    <t>QNX</t>
-  </si>
-  <si>
-    <t> VxWorks</t>
+    <t>Correct Answer</t>
+  </si>
+  <si>
+    <t>maxinmum marks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF3A3A3A"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,10 +96,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,9 +120,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -263,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -315,7 +220,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -508,37 +413,32 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757F34FF-3793-4331-AB1A-38743E325EA1}">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" customWidth="1"/>
-    <col min="6" max="6" width="53.6640625" customWidth="1"/>
-    <col min="7" max="7" width="54.88671875" customWidth="1"/>
-    <col min="8" max="8" width="52.109375" customWidth="1"/>
-    <col min="9" max="9" width="49.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="61.7265625" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" customWidth="1"/>
+    <col min="4" max="4" width="54.81640625" customWidth="1"/>
+    <col min="5" max="5" width="52.08984375" customWidth="1"/>
+    <col min="6" max="6" width="39.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.90625" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,161 +448,228 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EduQuiz-Companion/public/Book1.xlsx
+++ b/EduQuiz-Companion/public/Book1.xlsx
@@ -49,7 +49,7 @@
     <t>Correct Answer</t>
   </si>
   <si>
-    <t>maxinmum marks</t>
+    <t>maximum marks</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
